--- a/src/main/resources/poi/report_smartManufacturing_productionPlan.xlsx
+++ b/src/main/resources/poi/report_smartManufacturing_productionPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55632FDA-BDAB-4393-8F34-7687B382C4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF86981-711F-4A0B-937C-602091124ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
